--- a/data/income_statement/3digits/total/108_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/108_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>108-Manufacture of other food products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>108-Manufacture of other food products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>14407093.03449</v>
@@ -956,37 +862,42 @@
         <v>16085847.9027</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>18303041.99759</v>
+        <v>18305174.18523</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>20879211.76139</v>
+        <v>20884631.56241</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>22911343.72201</v>
+        <v>22912094.89486</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>27678195.78066</v>
+        <v>27754459.00076</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>30667269.17323</v>
+        <v>30778165.07872</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>30214423.63525</v>
+        <v>34584699.25848</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>39940374.57334</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>48027854.82240999</v>
+        <v>48063967.10422</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>59257442.70665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>59345660.06125</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>77124809.098</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>12773240.69696</v>
@@ -995,37 +906,42 @@
         <v>14365063.41806</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>15867685.10322</v>
+        <v>15868189.55297</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>18081035.12865</v>
+        <v>18084568.34904</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>19635817.37871</v>
+        <v>19636118.40256</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>23658696.97482</v>
+        <v>23725042.25405</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>26086966.64832</v>
+        <v>26179881.65577</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>25616395.65025</v>
+        <v>29461834.30169</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>33488117.75561</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>39471108.18383</v>
+        <v>39505651.4354</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>48688181.07338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>48757841.95062999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>63040587.897</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1573240.72354</v>
@@ -1034,76 +950,86 @@
         <v>1647746.36279</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2358365.13413</v>
+        <v>2359907.63918</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2693536.482129999</v>
+        <v>2695147.37155</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3152044.96957</v>
+        <v>3152495.11857</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3870357.548889999</v>
+        <v>3880204.139140001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4417427.08213</v>
+        <v>4435033.70895</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4443880.67928</v>
+        <v>4939719.677449999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>6211802.74804</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>8244556.34539</v>
+        <v>8246090.42394</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10164456.60395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10179561.46753</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>13575038.42</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>60611.61399000001</v>
+        <v>60611.61399</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>73038.12185</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>76991.76024</v>
+        <v>77076.99308000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>104640.15061</v>
+        <v>104915.84182</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>123481.37373</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>149141.25695</v>
+        <v>149212.60757</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>162875.44278</v>
+        <v>163249.714</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>154147.30572</v>
+        <v>183145.27934</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>240454.06969</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>312190.29319</v>
+        <v>312225.24488</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>404805.02932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>408256.64309</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>509182.781</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1589491.18754</v>
@@ -1112,76 +1038,86 @@
         <v>1990911.97436</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2134656.51254</v>
+        <v>2134743.41254</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2318143.7683</v>
+        <v>2318172.1973</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>2085919.84038</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2199630.36636</v>
+        <v>2215920.33778</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2269063.58931</v>
+        <v>2285461.00398</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2425465.09805</v>
+        <v>2610043.18483</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>3042272.52483</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3637749.19147</v>
+        <v>3638425.14163</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4675987.14692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4676420.681890001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>6929895.864</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>526626.6513899999</v>
+        <v>526626.65139</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>744168.4279700001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>815533.22678</v>
+        <v>815620.1267799999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>947312.7978500001</v>
+        <v>947341.2268499999</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>509516.25524</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>495193.32423</v>
+        <v>499729.6520000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>428610.47954</v>
+        <v>432910.7117700001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>489981.17495</v>
+        <v>517944.96585</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>611080.71525</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>787702.7556799999</v>
+        <v>788160.22685</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>970478.764</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>970798.33417</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1413299.705</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1015102.53705</v>
@@ -1199,31 +1135,36 @@
         <v>1435391.82091</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1660526.19319</v>
+        <v>1671882.32165</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1796094.99863</v>
+        <v>1807834.60195</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1892690.27314</v>
+        <v>2031186.59601</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>2339517.17042</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2714666.1519</v>
+        <v>2714884.63089</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3605301.3223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3605415.287099999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5238591.984</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>47761.99909999999</v>
+        <v>47761.9991</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>141821.05652</v>
@@ -1238,16 +1179,16 @@
         <v>141011.76423</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>43910.84894</v>
+        <v>44308.36413</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>44358.11114</v>
+        <v>44715.69026</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>42793.64996</v>
+        <v>60911.62297</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>91674.63915999999</v>
+        <v>91674.63916000001</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>135380.28389</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>100207.06062</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>278004.175</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>12817601.84695</v>
@@ -1268,37 +1214,42 @@
         <v>14094935.92834</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>16168385.48505</v>
+        <v>16170430.77269</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>18561067.99309</v>
+        <v>18566459.36511</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>20825423.88163</v>
+        <v>20826175.05448</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>25478565.4143</v>
+        <v>25538538.66298</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>28398205.58391999</v>
+        <v>28492704.07474</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>27788958.5372</v>
+        <v>31974656.07365</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>36898102.04851</v>
+        <v>36898102.04850999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>44390105.63094001</v>
+        <v>44425541.96258999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>54581455.55973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>54669239.37936</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>70194913.234</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>10322097.54393</v>
@@ -1307,115 +1258,130 @@
         <v>11325170.43311</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>13007269.45843</v>
+        <v>13009126.85835</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>14899125.50603</v>
+        <v>14903701.30928</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>16710389.65952</v>
+        <v>16711130.24408</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>20551285.94127</v>
+        <v>20591530.58621</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>22562681.55174</v>
+        <v>22629100.69656</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>22171651.86008</v>
+        <v>25509641.01596</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>29772674.55855</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>35803116.42031</v>
+        <v>35832861.03221</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>44574659.65953</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>44649076.21070001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>57335096.459</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>9300667.488120001</v>
+        <v>9300667.488119999</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>10194066.62524</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>11754601.72279</v>
+        <v>11756459.12271</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>13473311.30231</v>
+        <v>13477385.18428</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>15181137.09969</v>
+        <v>15181794.2233</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>18480274.56639</v>
+        <v>18500596.0099</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>20065673.76443</v>
+        <v>20091545.11496</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>19149688.18876</v>
+        <v>22281824.25438999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>26008884.88149</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>31578856.77342</v>
+        <v>31603860.72031</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>39215857.64568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>39339340.28107</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>49518675.417</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>886917.65475</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>958257.6646399999</v>
+        <v>958257.66464</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>1082242.24344</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1181818.21708</v>
+        <v>1182299.7381</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1304968.12644</v>
+        <v>1305047.60144</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1836360.98423</v>
+        <v>1856278.00317</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2189632.05444</v>
+        <v>2228082.25452</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2664022.46298</v>
+        <v>2865734.1852</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>3313889.35563</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3638433.31256</v>
+        <v>3642518.11817</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4886656.700470001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4835774.99414</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6673180.279</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>72324.02865000001</v>
@@ -1427,34 +1393,39 @@
         <v>111778.64851</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>145327.3077</v>
+        <v>145347.70796</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>131951.76279</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>157307.51631</v>
+        <v>157313.6988</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>240344.57596</v>
+        <v>240518.72945</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>277339.2737899999</v>
+        <v>279201.91415</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>356687.90638</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>464318.33371</v>
+        <v>464501.00147</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>339737.66889</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>341525.85773</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>336520.52</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>62188.37241</v>
@@ -1469,31 +1440,36 @@
         <v>98668.67894</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>92332.6706</v>
+        <v>92336.65655</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>77342.87434000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>67031.15691000001</v>
+        <v>68954.59762999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>80601.93455000001</v>
+        <v>82880.66222</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>93212.41505</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>121508.00062</v>
+        <v>121981.19226</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>132407.64449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>132435.07776</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>806720.243</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2495504.30302</v>
@@ -1502,37 +1478,42 @@
         <v>2769765.49523</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3161116.02662</v>
+        <v>3161303.91434</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3661942.48706</v>
+        <v>3662758.05583</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4115034.22211</v>
+        <v>4115044.8104</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4927279.473030001</v>
+        <v>4947008.076769999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5835524.032179999</v>
+        <v>5863603.378179999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5617306.677120001</v>
+        <v>6465015.05769</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>7125427.48996</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>8586989.21063</v>
+        <v>8592680.930380002</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>10006795.9002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10020163.16866</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>12859816.775</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1660665.2119</v>
@@ -1541,37 +1522,42 @@
         <v>1925162.63805</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2121071.02556</v>
+        <v>2121205.75575</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2388805.77642</v>
+        <v>2389657.62905</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2723090.032850001</v>
+        <v>2723226.32828</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2966927.55742</v>
+        <v>2985455.80157</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3406848.45803</v>
+        <v>3427008.157440001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3374497.3584</v>
+        <v>3622690.755210001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4076611.480359999</v>
+        <v>4076611.48036</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4747876.67779</v>
+        <v>4754073.95146</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5859351.74493</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5871327.65521</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7063513.249</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>29103.78619</v>
@@ -1589,28 +1575,33 @@
         <v>49529.11401</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>57073.05669999999</v>
+        <v>57073.0567</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>58203.68986</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>52752.3919</v>
+        <v>59279.90704999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>58052.34052000001</v>
+        <v>58052.34052</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>65492.95671</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>87262.67486000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>87265.56577000002</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>102366.822</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1086796.46572</v>
@@ -1619,37 +1610,42 @@
         <v>1299421.90332</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1399182.94125</v>
+        <v>1399193.65119</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1574401.11401</v>
+        <v>1575098.41851</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1799794.23417</v>
+        <v>1799795.44876</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1933076.02904</v>
+        <v>1947172.07863</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2209114.54829</v>
+        <v>2223734.38407</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2146216.19807</v>
+        <v>2276543.33274</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2551305.70868</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2897228.74228</v>
+        <v>2898689.31044</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3653117.05345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3656337.87714</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4314755.347</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>544764.95999</v>
@@ -1658,76 +1654,86 @@
         <v>584374.65634</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>683356.87601</v>
+        <v>683480.8962600001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>774735.0761299999</v>
+        <v>774889.62426</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>873766.6846699999</v>
+        <v>873901.7655099999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>976778.47168</v>
+        <v>981210.66624</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1139530.21988</v>
+        <v>1145070.08351</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1175528.76843</v>
+        <v>1286867.51542</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1467253.43116</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1785154.9788</v>
+        <v>1789891.68431</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2118972.01662</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2127724.2123</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2646391.08</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>834839.09112</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>844602.8571799999</v>
+        <v>844602.85718</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1040045.00106</v>
+        <v>1040098.15859</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1273136.71064</v>
+        <v>1273100.42678</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1391944.18926</v>
+        <v>1391818.48212</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1960351.91561</v>
+        <v>1961552.2752</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2428675.57415</v>
+        <v>2436595.22074</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2242809.31872</v>
+        <v>2842324.30248</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>3048816.0096</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3839112.53284</v>
+        <v>3838606.97892</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4147444.15527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4148835.51345</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>5796303.526</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>544290.5212999999</v>
@@ -1736,37 +1742,42 @@
         <v>445881.03055</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>480798.57723</v>
+        <v>480844.86525</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>577242.96192</v>
+        <v>577249.9865600001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>574391.95803</v>
+        <v>574434.8083499999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>660615.21019</v>
+        <v>661594.6504299999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>938668.0271099999</v>
+        <v>940900.9802400001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>889188.46498</v>
+        <v>1104454.14351</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1500290.07254</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3385669.79659</v>
+        <v>3469601.06768</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7237895.86308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7240115.20593</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3495044.736</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>5236.28703</v>
@@ -1787,25 +1798,30 @@
         <v>16602.97473</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>9591.31797</v>
+        <v>9591.317969999998</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>12982.01961</v>
+        <v>13753.45841</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>58405.67137</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>73717.10803000002</v>
+        <v>86474.37461000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>4608052.37948</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4608052.379480001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>33284.456</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1829,7 +1845,7 @@
         <v>1060.03121</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>50071.74647</v>
+        <v>50166.98784</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>7350.39614</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>94475.63864</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2100.303</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>98511.51784999999</v>
@@ -1856,34 +1877,39 @@
         <v>59924.46502</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>102492.1609</v>
+        <v>102493.43163</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>88069.19972000002</v>
+        <v>88069.19972</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>95360.42946</v>
+        <v>95522.08422</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>125457.19582</v>
+        <v>125491.3078</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>85338.31425</v>
+        <v>204017.13117</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>313594.56358</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>510097.0302</v>
+        <v>515976.5146200001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>785560.9779599999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>786655.88752</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>577149.054</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>132.87499</v>
@@ -1901,10 +1927,10 @@
         <v>1223.68499</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>734.34971</v>
+        <v>734.3497100000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2248.33276</v>
+        <v>2257.62745</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>4621.06341</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>18319.05854</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>15698.495</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>8347.535959999999</v>
+        <v>8347.535960000001</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>5772.515329999999</v>
@@ -1940,13 +1971,13 @@
         <v>8369.45112</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>8444.799289999999</v>
+        <v>8444.799290000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>10619.29844</v>
+        <v>11352.03776</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6107.03501</v>
+        <v>6607.94242</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>10227.77578</v>
@@ -1955,13 +1986,18 @@
         <v>16835.6929</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>13006.19757</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>12690.98495</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>12513.369</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>327.72846</v>
@@ -1982,25 +2018,30 @@
         <v>4766.08169</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>6797.06951</v>
+        <v>6797.069509999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1406.08739</v>
+        <v>1426.25991</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2870.18956</v>
+        <v>2870.189560000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>114745.7913</v>
+        <v>114745.80998</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>11773.02188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>11270.21899</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>67141.80499999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>352065.90892</v>
@@ -2009,37 +2050,42 @@
         <v>291141.90339</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>281811.57026</v>
+        <v>281857.85828</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>336842.11325</v>
+        <v>336847.8671499999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>328768.9253999999</v>
+        <v>328769.97572</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>409006.53777</v>
+        <v>409592.3312899999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>650160.68608</v>
+        <v>651341.3728899999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>592916.0424500001</v>
+        <v>669123.5625499999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>887809.3906300002</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2365649.56243</v>
+        <v>2430580.55021</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1429851.51798</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1431068.05081</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2469411.018</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1210.08353</v>
@@ -2057,13 +2103,13 @@
         <v>565.7437</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1065.67508</v>
+        <v>1177.27508</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>657.60399</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>368.65936</v>
+        <v>470.5539</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>340.78536</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>626.28521</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1604.195</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>32.85345</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>0.62125</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>243.273</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>78425.73110999999</v>
+        <v>78425.73110999998</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>73358.1997</v>
@@ -2129,34 +2185,39 @@
         <v>101085.54067</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>93053.14469000002</v>
+        <v>93053.1447</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>127627.06224</v>
+        <v>127668.86224</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>123120.84976</v>
+        <v>123241.24172</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>131709.09334</v>
+        <v>131985.21367</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>135356.28759</v>
+        <v>154245.97446</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>210836.59702</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>202893.10596</v>
+        <v>203256.61959</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>276230.16457</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>276956.08054</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>315898.768</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>421168.08683</v>
@@ -2165,40 +2226,45 @@
         <v>327932.15647</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>387220.16673</v>
+        <v>387254.14727</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>328919.1143300001</v>
+        <v>328929.37012</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>481977.0919</v>
+        <v>481977.0918999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>607690.32543</v>
+        <v>610078.63168</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>839557.71398</v>
+        <v>843792.65264</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>941859.43109</v>
+        <v>1043261.81222</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1047505.45234</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2495299.96215</v>
+        <v>2528866.26208</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1968921.22776</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1972007.95674</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2803158.57</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2808.88973</v>
+        <v>2808.889729999999</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>3286.0152</v>
@@ -2207,34 +2273,39 @@
         <v>3086.40095</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5228.420570000001</v>
+        <v>5228.42057</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>6131.60645</v>
+        <v>6131.606449999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>8586.35123</v>
+        <v>8586.351229999998</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>12330.86763</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>5126.678830000001</v>
+        <v>5172.17413</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>6303.6514</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>41013.30533</v>
+        <v>41020.61775</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>15492.65262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>15492.84025</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>18546.499</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>21969.79019</v>
@@ -2252,28 +2323,33 @@
         <v>26814.07615</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>48130.85106</v>
+        <v>49885.49087</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>43924.65292</v>
+        <v>47121.02663</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>35945.66789</v>
+        <v>51352.01331</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>55444.58154</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>65690.00345</v>
+        <v>65690.00344999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>61226.09512999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>61845.43264</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>47262.319</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>199.31038</v>
@@ -2291,13 +2367,13 @@
         <v>55.47081</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>33688.01005999999</v>
+        <v>33688.01006</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>11.62051</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>167.84237</v>
+        <v>175.40752</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>121.34741</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>427.64611</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1199.542</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>326864.00115</v>
@@ -2321,43 +2402,48 @@
         <v>248992.05426</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>297030.15415</v>
+        <v>297064.1346899999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>225617.7656</v>
+        <v>225628.02137</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>374795.6722800001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>432948.8351800001</v>
+        <v>433582.50162</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>728594.51716</v>
+        <v>729449.9463600001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>819848.5631099999</v>
+        <v>891522.87397</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>899074.2601600001</v>
+        <v>899074.2601599998</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2299673.61929</v>
+        <v>2333008.42153</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1782902.11729</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1783281.33353</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2599766.245</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1430.03087</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>594.8671899999999</v>
+        <v>594.8671900000001</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>343.44858</v>
@@ -2375,22 +2461,27 @@
         <v>546.16486</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>189.17655</v>
+        <v>291.71024</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>477.74861</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>528.6505599999999</v>
+        <v>528.65056</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>471.33782</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1521.309</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>13.17687</v>
@@ -2425,89 +2516,104 @@
       <c r="M42" s="48" t="n">
         <v>317.74699</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>67882.88764</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>38118.63890000001</v>
+        <v>38118.6389</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>65197.2284</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>76165.48212</v>
+        <v>76165.48214000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>73277.84871000001</v>
+        <v>73277.84870999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>83763.83690000002</v>
+        <v>83763.83689999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>54149.89089999999</v>
+        <v>54333.02665</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>80581.09334999998</v>
+        <v>94747.22406000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>86083.86322</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>88381.11755999998</v>
+        <v>88605.30283</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>108083.6318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>110171.6194</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>134862.656</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>401651.8269099999</v>
+        <v>401651.8269100001</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>391760.7412700001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>692883.4119600001</v>
+        <v>693026.14853</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>522292.7759599999</v>
+        <v>522444.00952</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>912010.81351</v>
+        <v>912144.9218599999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>971398.0543099998</v>
+        <v>973068.72153</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1470390.53649</v>
+        <v>1472568.89183</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1246247.79168</v>
+        <v>1529244.89932</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2173202.56492</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3721955.51556</v>
+        <v>3723017.9598</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3861678.286859999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3862211.88351</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3791235.004</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>366895.25898</v>
@@ -2516,49 +2622,54 @@
         <v>355656.97753</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>547575.72476</v>
+        <v>547718.4613300001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>437735.34603</v>
+        <v>437886.57959</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>793124.1595300001</v>
+        <v>793258.2678799999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>854472.2131200001</v>
+        <v>856142.8803399999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1359957.64295</v>
+        <v>1362135.99829</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1146159.2912</v>
+        <v>1423196.63948</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2080053.82265</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3326226.89595</v>
+        <v>3327267.11574</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3571743.0085</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3572217.87164</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3526227.552</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>34756.56793</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>36103.76374</v>
+        <v>36103.76373999999</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>145307.6872</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>84557.42993</v>
+        <v>84557.42993000001</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>118886.65398</v>
@@ -2570,61 +2681,71 @@
         <v>110432.89354</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>100088.50048</v>
+        <v>106048.25984</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>93148.74227000002</v>
+        <v>93148.74227</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>395728.61961</v>
+        <v>395750.84406</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>289935.27836</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>289994.01187</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>265007.452</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>556309.6986799999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>570790.98999</v>
+        <v>570790.9899899999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>440739.9996</v>
+        <v>440662.72804</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>999167.7822700001</v>
+        <v>998977.0337</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>572348.24188</v>
+        <v>572131.2767099999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1041878.74606</v>
+        <v>1039999.57242</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1057395.35079</v>
+        <v>1061134.65651</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>943890.56093</v>
+        <v>1374271.73445</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1328398.06488</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1007526.85172</v>
+        <v>1056323.82472</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>5554740.503730001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>5554730.87913</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2696954.688</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>84605.49333</v>
@@ -2633,37 +2754,42 @@
         <v>123717.325</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>203313.00437</v>
+        <v>203325.00591</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>214326.12854</v>
+        <v>214356.69757</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>227699.35283</v>
+        <v>227722.58835</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>337157.00524</v>
+        <v>337281.9906300001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>192025.26393</v>
+        <v>192228.81292</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>150723.20016</v>
+        <v>416502.04165</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>329049.9248</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>320333.50822</v>
+        <v>321227.14929</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>307892.69342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>308940.25187</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>746772.857</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>11963.95764</v>
@@ -2675,7 +2801,7 @@
         <v>11685.7446</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3757.92284</v>
+        <v>3761.29816</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>15821.33261</v>
@@ -2687,22 +2813,27 @@
         <v>9889.925499999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>4754.79774</v>
+        <v>5481.165870000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>6366.867300000001</v>
+        <v>6366.8673</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>13420.60454</v>
+        <v>13431.36893</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>53339.32815</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>26778.432</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>72641.53569</v>
@@ -2711,37 +2842,42 @@
         <v>100564.80923</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>191627.25977</v>
+        <v>191639.26131</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>210568.2057</v>
+        <v>210595.39941</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>211878.02022</v>
+        <v>211901.25574</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>322993.54641</v>
+        <v>323118.5317999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>182135.33843</v>
+        <v>182338.88742</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>145968.40242</v>
+        <v>411020.87578</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>322683.0575</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>306912.90368</v>
+        <v>307795.78036</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>254553.36527</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>255600.92372</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>719994.425</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>210074.08415</v>
@@ -2750,76 +2886,86 @@
         <v>324553.09573</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>516755.05437</v>
+        <v>516772.28221</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>347185.49808</v>
+        <v>347202.81927</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>456912.8732</v>
+        <v>457033.58154</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>511415.0595699999</v>
+        <v>511666.81097</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>427016.44358</v>
+        <v>427293.86798</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>524804.7807999999</v>
+        <v>623226.19386</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>453671.98588</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1827016.94784</v>
+        <v>1830646.13409</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>648002.92813</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>648904.9267000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2103103.686</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>82272.67895999998</v>
+        <v>82272.67895999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>99032.55339999999</v>
+        <v>99032.5534</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>102520.72739</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>83888.36394</v>
+        <v>83888.36394000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>118200.81443</v>
+        <v>118220.29453</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>147356.77805</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>143186.7396</v>
+        <v>143190.9769</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>105274.21171</v>
+        <v>146929.72393</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>135602.71555</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>151756.57403</v>
+        <v>151924.50473</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>190805.12682</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>190817.29866</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>245518.341</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>32005.70073</v>
@@ -2828,7 +2974,7 @@
         <v>94033.49637000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>80265.46935</v>
+        <v>80265.46935000001</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>116054.43347</v>
@@ -2840,10 +2986,10 @@
         <v>120653.73384</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>112104.49114</v>
+        <v>112151.12706</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>145364.79549</v>
+        <v>158123.64811</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>138455.88682</v>
@@ -2854,50 +3000,60 @@
       <c r="M53" s="48" t="n">
         <v>205690.56509</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>187014.705</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>95795.70446000001</v>
+        <v>95795.70445999999</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>131487.04596</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>333968.85763</v>
+        <v>333986.08547</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>147242.70067</v>
+        <v>147260.02186</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>210979.03105</v>
+        <v>211080.25929</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>243404.54768</v>
+        <v>243656.29908</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>171725.21284</v>
+        <v>171951.76402</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>274165.7736</v>
+        <v>318172.82182</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>179613.38351</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1219372.53955</v>
+        <v>1222833.7951</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>251507.23622</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>252397.06295</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1670570.64</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>430841.10786</v>
@@ -2906,37 +3062,42 @@
         <v>369955.21926</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>127297.9496</v>
+        <v>127215.45174</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>866308.41273</v>
+        <v>866130.9119999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>343134.72151</v>
+        <v>342820.28352</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>867620.69173</v>
+        <v>865614.75208</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>822404.17114</v>
+        <v>826069.60145</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>569808.9802900001</v>
+        <v>1167547.58224</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1203776.0038</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-499156.5878999999</v>
+        <v>-453095.1600800001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5214630.26902</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5214766.2043</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1340623.859</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>110545.07494</v>
@@ -2948,34 +3109,39 @@
         <v>146114.11852</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>178423.52943</v>
+        <v>178435.05371</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>198107.43861</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>234421.86161</v>
+        <v>234649.27923</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>267422.51789</v>
+        <v>267956.37767</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>245233.22172</v>
+        <v>293944.52773</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>356668.21882</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>520383.88788</v>
+        <v>528903.5342199999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>529839.83563</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>531063.2713</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>729831.078</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>320296.03292</v>
@@ -2984,34 +3150,37 @@
         <v>241518.86705</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-18816.16892</v>
+        <v>-18898.66678</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>687884.8833000001</v>
+        <v>687695.8582900001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>145027.2829</v>
+        <v>144712.84491</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>633198.8301200001</v>
+        <v>630965.47285</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>554981.65325</v>
+        <v>558113.22378</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>324575.75857</v>
+        <v>873603.05451</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>847107.78498</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1019540.47578</v>
+        <v>-981998.6943</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4684790.43339</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4683702.933</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>610792.781</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1055</v>
@@ -3038,34 +3210,37 @@
         <v>1102</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1435</v>
+        <v>1444</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1536</v>
+        <v>1557</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1695</v>
+        <v>1714</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1888</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1820</v>
+        <v>2042</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2230</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>